--- a/documents/03_ファイル構成一覧表_sample.xlsx
+++ b/documents/03_ファイル構成一覧表_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\作成ドキュメント\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454C748-CB9F-4DD3-8EC0-C7007F415A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA143B19-BA30-4E66-8C9B-67BC657093CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="110">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -378,19 +378,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MenuServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Board.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BoardServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MypageServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -510,13 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニューページ用</t>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板用</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -537,13 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ用</t>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板DAO</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -657,6 +635,57 @@
     <rPh sb="5" eb="8">
       <t>コウシヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアクションページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザベーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyReactionServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuBoardServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuReservationServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MenuReactionServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページリアクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyBoardServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ掲示板</t>
+    <rPh sb="5" eb="8">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyUserDateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページのアカウント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -724,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +764,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1107,7 +1142,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B31" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1117,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1136,10 +1171,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1155,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1174,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1193,118 +1228,124 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1317,36 +1358,38 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1356,10 +1399,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1369,16 +1412,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1388,34 +1431,35 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1425,16 +1469,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1449,11 +1493,11 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>97</v>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1468,16 +1512,17 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>98</v>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1486,11 +1531,11 @@
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>99</v>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1505,16 +1550,17 @@
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>100</v>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1524,28 +1570,29 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1555,16 +1602,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1574,34 +1621,35 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1617,12 +1665,104 @@
         <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2011,6 +2151,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2181,36 +2336,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2233,9 +2362,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_sample.xlsx
+++ b/documents/03_ファイル構成一覧表_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\作成ドキュメント\作成ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA143B19-BA30-4E66-8C9B-67BC657093CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454C748-CB9F-4DD3-8EC0-C7007F415A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -378,11 +378,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>MenuServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Board.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BoardServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MypageServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -502,6 +510,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>メニューページ用</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>掲示板用</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -522,6 +537,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>マイページ用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>掲示板DAO</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -635,57 +657,6 @@
     <rPh sb="5" eb="8">
       <t>コウシヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアクションページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューボード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザベーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyReactionServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MenuBoardServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MenuReservationServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MenuReactionServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページリアクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyBoardServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ掲示板</t>
-    <rPh sb="5" eb="8">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyUserDateServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページのアカウント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,12 +735,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:G37"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1142,7 +1107,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B31" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1152,10 +1117,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1171,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1190,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1209,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1228,124 +1193,118 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1358,38 +1317,36 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1399,10 +1356,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1412,16 +1369,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1431,35 +1388,34 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1469,16 +1425,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1493,11 +1449,11 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1512,17 +1468,16 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1531,11 +1486,11 @@
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>91</v>
+      <c r="E24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1550,17 +1505,16 @@
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>92</v>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1570,29 +1524,28 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1602,16 +1555,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1621,35 +1574,34 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1665,104 +1617,12 @@
         <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2151,21 +2011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2336,10 +2181,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2362,20 +2233,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_sample.xlsx
+++ b/documents/03_ファイル構成一覧表_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\作成ドキュメント\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454C748-CB9F-4DD3-8EC0-C7007F415A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2F0F4-D89A-475E-A257-3A3C28C90067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -422,18 +422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ReservationDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reservation.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ReservationServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IdpwDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -450,14 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reservation.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reservationT.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypageT.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,10 +447,6 @@
   </si>
   <si>
     <t>borad.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reservation.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -496,13 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">予約画面CSS </t>
-    <rPh sb="0" eb="4">
-      <t>ヨヤクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">マイページ画面CSS </t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -527,16 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約用</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページ用</t>
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
@@ -555,13 +514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約DAO</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IdpwDAO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -585,13 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約モデル</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面jsp</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -626,37 +571,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約画面jsp</t>
-    <rPh sb="0" eb="4">
-      <t>ヨヤクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約画面講師用jsp</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページjap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページ講師用jsp</t>
     <rPh sb="5" eb="8">
       <t>コウシヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページjsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1051,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1107,7 +1029,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B31" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B25" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1120,7 +1042,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1139,7 +1061,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1155,10 +1077,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1174,35 +1096,34 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1211,16 +1132,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1229,51 +1150,52 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1283,16 +1205,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -1301,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1314,52 +1236,53 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1375,10 +1298,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1393,16 +1316,17 @@
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1411,18 +1335,17 @@
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -1430,30 +1353,29 @@
       <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1463,34 +1385,35 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1500,129 +1423,18 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2011,6 +1823,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2181,36 +2008,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2233,9 +2034,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>